--- a/src/main/resources/exceltemplate/CustomizeReport.xlsx
+++ b/src/main/resources/exceltemplate/CustomizeReport.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -81,8 +81,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -90,70 +126,57 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,22 +188,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -188,31 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +233,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,169 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -457,32 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,8 +522,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,26 +539,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +559,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1047,7 +1047,7 @@
     <col min="11" max="41" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" customHeight="1" spans="1:10">
+    <row r="1" ht="57" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,8 +1060,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" ht="14.25" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1069,9 +1073,22 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2"/>
@@ -1092,7 +1109,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
